--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-15884.03728584343</v>
+        <v>-24188.93249349797</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3093849.912446495</v>
+        <v>3093849.912446494</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.59987285855575</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>257.6351509699953</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T12" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731035</v>
       </c>
       <c r="U12" t="n">
         <v>174.5071388043578</v>
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2175023129948</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.9085871367718</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>48.50583343253317</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>236.2665936936974</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1742,7 +1742,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U15" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V15" t="n">
         <v>197.1263427586206</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>170.2484314711944</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>91.95092294110526</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315.5301693740618</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,10 +1855,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>182.060748862941</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>22.94492144010743</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>155.9729252669621</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>361.9987888703319</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>275.1106372348589</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426295</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,13 +2247,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>167.8191401812163</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>83.92742596576343</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>398.1302486828127</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>149.6157531058523</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306947</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>36.79852016673944</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>117.5427777472413</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>29.17160265248819</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>187.5913948237732</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2651,7 +2651,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>31.6232235330695</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>170.2484314711945</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>141.012476233026</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>67.62324667739006</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>361.4649050157276</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>49.19444708964232</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>220.866550255054</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>361.464905015728</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>83.60892692492305</v>
       </c>
     </row>
     <row r="33">
@@ -3125,7 +3125,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>12.99065215615417</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>40.81179447522066</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>54.91274684145216</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>151.3874301392637</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>5.967418683816874</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.18189662745586</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>183.487204544199</v>
+        <v>384.5883209693997</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.3370279433898531</v>
+        <v>102.109326370727</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>109.5540470185014</v>
+        <v>166.6471019812791</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>64.65234145753885</v>
       </c>
       <c r="G43" t="n">
-        <v>40.81179447522067</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>3.008008304820521</v>
       </c>
       <c r="X44" t="n">
-        <v>149.6157531058523</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>64.65234145753885</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>31.40208394875347</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>706.9467691017961</v>
+        <v>961.9414578410189</v>
       </c>
       <c r="C11" t="n">
-        <v>706.9467691017961</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D11" t="n">
-        <v>706.9467691017961</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E11" t="n">
-        <v>706.9467691017961</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F11" t="n">
-        <v>706.9467691017961</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G11" t="n">
-        <v>307.4440777812733</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
         <v>2043.069798152528</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U11" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V11" t="n">
-        <v>1957.24425759636</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W11" t="n">
-        <v>1552.388803007393</v>
+        <v>1381.083921261708</v>
       </c>
       <c r="X11" t="n">
-        <v>1133.246339586704</v>
+        <v>961.9414578410189</v>
       </c>
       <c r="Y11" t="n">
-        <v>1133.246339586704</v>
+        <v>961.9414578410189</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
         <v>81.42328772043084</v>
@@ -5123,22 +5123,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P12" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q12" t="n">
         <v>1614.947661807679</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>168.6383720671313</v>
+        <v>697.8411042932939</v>
       </c>
       <c r="C13" t="n">
-        <v>47.20655154895473</v>
+        <v>697.8411042932939</v>
       </c>
       <c r="D13" t="n">
-        <v>47.20655154895473</v>
+        <v>531.9631114948166</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895473</v>
+        <v>362.2051077455539</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>185.4980537073101</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M13" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N13" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O13" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P13" t="n">
-        <v>803.4213591048583</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q13" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R13" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S13" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T13" t="n">
-        <v>647.4124989156879</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U13" t="n">
-        <v>647.4124989156879</v>
+        <v>889.659723012281</v>
       </c>
       <c r="V13" t="n">
-        <v>360.4569907861184</v>
+        <v>889.659723012281</v>
       </c>
       <c r="W13" t="n">
-        <v>360.4569907861184</v>
+        <v>889.659723012281</v>
       </c>
       <c r="X13" t="n">
-        <v>360.4569907861184</v>
+        <v>889.659723012281</v>
       </c>
       <c r="Y13" t="n">
-        <v>360.4569907861184</v>
+        <v>889.659723012281</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>765.4265856715602</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C14" t="n">
-        <v>765.4265856715602</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D14" t="n">
-        <v>765.4265856715602</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
         <v>805.440802286702</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792596</v>
+        <v>1122.013229783222</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>883.3601048400935</v>
       </c>
       <c r="Y14" t="n">
-        <v>765.4265856715602</v>
+        <v>475.073981139747</v>
       </c>
     </row>
     <row r="15">
@@ -5336,43 +5336,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987878</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="C16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="D16" t="n">
-        <v>1878.054933556327</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="E16" t="n">
-        <v>1878.054933556327</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>1878.054933556327</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>1713.313753168846</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>1580.969692548162</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K16" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M16" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N16" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O16" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P16" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951971</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T16" t="n">
-        <v>2043.932926354805</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="U16" t="n">
-        <v>2043.932926354805</v>
+        <v>647.4124989156879</v>
       </c>
       <c r="V16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="W16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="X16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
       <c r="Y16" t="n">
-        <v>2043.932926354805</v>
+        <v>554.5327787731574</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="C17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E17" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5518,16 +5518,16 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O17" t="n">
         <v>1775.969506973259</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792596</v>
+        <v>1302.502568260783</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>883.3601048400935</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715602</v>
+        <v>475.073981139747</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,19 +5585,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895471</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
         <v>551.5786779960906</v>
@@ -5609,7 +5609,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2202.779168087169</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="C19" t="n">
-        <v>2030.217456570394</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D19" t="n">
-        <v>1864.339463771916</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E19" t="n">
-        <v>1694.581460022654</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M19" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N19" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T19" t="n">
-        <v>2202.779168087169</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U19" t="n">
-        <v>2202.779168087169</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V19" t="n">
-        <v>2202.779168087169</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W19" t="n">
-        <v>2202.779168087169</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="X19" t="n">
-        <v>2202.779168087169</v>
+        <v>644.2679683456938</v>
       </c>
       <c r="Y19" t="n">
-        <v>2202.779168087169</v>
+        <v>416.8482976598021</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2060.790516184048</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.648043367471</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D20" t="n">
-        <v>1186.738258541915</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>752.9635137002106</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0960841094183</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228011</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="V20" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="W20" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="X20" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="Y20" t="n">
-        <v>2060.790516184048</v>
+        <v>2148.556325916848</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663909</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030332</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O21" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P21" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q21" t="n">
         <v>1614.947661807679</v>
@@ -5873,10 +5873,10 @@
         <v>945.2284211280532</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669333</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.875206146154</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1856.314110299662</v>
+        <v>889.659723012281</v>
       </c>
       <c r="C22" t="n">
-        <v>1683.752398782887</v>
+        <v>717.0980114955059</v>
       </c>
       <c r="D22" t="n">
-        <v>1517.87440598441</v>
+        <v>551.2200186970286</v>
       </c>
       <c r="E22" t="n">
-        <v>1517.87440598441</v>
+        <v>381.4620149477659</v>
       </c>
       <c r="F22" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M22" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N22" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T22" t="n">
-        <v>2275.552399704541</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U22" t="n">
-        <v>2275.552399704541</v>
+        <v>889.659723012281</v>
       </c>
       <c r="V22" t="n">
-        <v>2275.552399704541</v>
+        <v>889.659723012281</v>
       </c>
       <c r="W22" t="n">
-        <v>2275.552399704541</v>
+        <v>889.659723012281</v>
       </c>
       <c r="X22" t="n">
-        <v>2275.552399704541</v>
+        <v>889.659723012281</v>
       </c>
       <c r="Y22" t="n">
-        <v>2048.13272901865</v>
+        <v>889.659723012281</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>716.4307943255671</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895473</v>
@@ -6019,22 +6019,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V23" t="n">
-        <v>1526.868684372189</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W23" t="n">
-        <v>1526.868684372189</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X23" t="n">
-        <v>1124.716918025914</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y23" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.5713050663908</v>
+        <v>542.5713050663906</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030328</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495861</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765398</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927014</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.14920158235823</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895473</v>
@@ -6071,22 +6071,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L24" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P24" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q24" t="n">
         <v>1614.947661807679</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280532</v>
+        <v>945.228421128053</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669329</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461537</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2323.157355057091</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="C25" t="n">
-        <v>2150.595643540315</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="D25" t="n">
-        <v>1984.717650741838</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E25" t="n">
-        <v>1814.959646992575</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F25" t="n">
-        <v>1814.959646992575</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G25" t="n">
-        <v>1650.218466605094</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I25" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J25" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K25" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P25" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q25" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="T25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="U25" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="V25" t="n">
-        <v>2360.327577447737</v>
+        <v>602.7042148827118</v>
       </c>
       <c r="W25" t="n">
-        <v>2360.327577447737</v>
+        <v>330.6778104690033</v>
       </c>
       <c r="X25" t="n">
-        <v>2360.327577447737</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="Y25" t="n">
-        <v>2360.327577447737</v>
+        <v>211.9477319364363</v>
       </c>
     </row>
     <row r="26">
@@ -6202,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>914.3179809915979</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C26" t="n">
-        <v>476.1755081750212</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D26" t="n">
-        <v>476.1755081750212</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E26" t="n">
-        <v>476.1755081750212</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
         <v>2043.069798152528</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2108.089956131646</v>
+        <v>2170.841320049986</v>
       </c>
       <c r="U26" t="n">
-        <v>2108.089956131646</v>
+        <v>1911.7706285715</v>
       </c>
       <c r="V26" t="n">
-        <v>1745.473006065472</v>
+        <v>1549.153678505326</v>
       </c>
       <c r="W26" t="n">
-        <v>1340.617551476506</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X26" t="n">
-        <v>1340.617551476506</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y26" t="n">
-        <v>1340.617551476506</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>1119.791305117177</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>930.5806015906844</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>847.1967632068461</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>762.8256627965029</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>730.8830127630994</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>765.0997489345755</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
-        <v>858.9930882810426</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L27" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M27" t="n">
-        <v>1487.064164512932</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N27" t="n">
-        <v>1745.537825434252</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>2171.765028813589</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>2298.624123021823</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>2189.614991723123</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>2013.345154547004</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>1347.551667360298</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>573.2650719193497</v>
+        <v>555.4042596134699</v>
       </c>
       <c r="C28" t="n">
-        <v>573.2650719193497</v>
+        <v>382.8425480966948</v>
       </c>
       <c r="D28" t="n">
-        <v>407.3870791208724</v>
+        <v>216.9645552982175</v>
       </c>
       <c r="E28" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F28" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G28" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H28" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K28" t="n">
         <v>202.912315818696</v>
@@ -6396,40 +6396,40 @@
         <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794129</v>
       </c>
       <c r="O28" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271747</v>
       </c>
       <c r="P28" t="n">
-        <v>803.4213591048583</v>
+        <v>803.4213591048582</v>
       </c>
       <c r="Q28" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355138</v>
       </c>
       <c r="R28" t="n">
-        <v>889.6597230122813</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="S28" t="n">
-        <v>745.2331845165158</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="T28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="U28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="V28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="W28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="X28" t="n">
-        <v>573.2650719193497</v>
+        <v>889.6597230122812</v>
       </c>
       <c r="Y28" t="n">
-        <v>573.2650719193497</v>
+        <v>747.222878332457</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>485.3490243655314</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895473</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M29" t="n">
         <v>1131.588690455489</v>
@@ -6487,28 +6487,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T29" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2080.250016141707</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>1717.633066075534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>1312.777611486567</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X29" t="n">
-        <v>893.635148065878</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y29" t="n">
-        <v>485.3490243655314</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1226.247766280535</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>1024.701016263731</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>930.5806015906846</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>847.1967632068463</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>762.8256627965031</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>730.8830127630996</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I30" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>858.9930882810428</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K30" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L30" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>1814.227636609004</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>1628.904882342198</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>96.89791224556313</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="C31" t="n">
-        <v>47.20655154895473</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D31" t="n">
-        <v>47.20655154895473</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E31" t="n">
-        <v>47.20655154895473</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G31" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J31" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K31" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>326.783117436994</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M31" t="n">
-        <v>457.3875097755234</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N31" t="n">
-        <v>584.886421579413</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O31" t="n">
-        <v>702.6523029271748</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P31" t="n">
-        <v>803.4213591048583</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q31" t="n">
-        <v>873.1886303355139</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R31" t="n">
-        <v>889.6597230122813</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="T31" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="U31" t="n">
-        <v>611.2730910610244</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="V31" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165155</v>
       </c>
       <c r="W31" t="n">
-        <v>324.3175829314549</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="X31" t="n">
-        <v>324.3175829314549</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="Y31" t="n">
-        <v>96.89791224556313</v>
+        <v>522.1356590063599</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>919.1237692072363</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K32" t="n">
         <v>512.3249274228015</v>
@@ -6724,10 +6724,10 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S32" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T32" t="n">
         <v>2108.089956131646</v>
@@ -6736,16 +6736,16 @@
         <v>1849.01926465316</v>
       </c>
       <c r="V32" t="n">
-        <v>1486.402314586986</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W32" t="n">
-        <v>1081.54685999802</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1429.87680123247</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1345.423339692144</v>
       </c>
     </row>
     <row r="33">
@@ -6758,7 +6758,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
         <v>341.0245550495863</v>
@@ -6770,10 +6770,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I33" t="n">
         <v>81.42328772043084</v>
@@ -6782,10 +6782,10 @@
         <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L33" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
         <v>803.3877032987879</v>
@@ -6794,7 +6794,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P33" t="n">
         <v>1488.088567599445</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.20655154895473</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C34" t="n">
-        <v>47.20655154895473</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D34" t="n">
-        <v>47.20655154895473</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E34" t="n">
-        <v>47.20655154895473</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J34" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K34" t="n">
         <v>202.912315818696</v>
@@ -6885,25 +6885,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>848.4356881888261</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>606.1884640922327</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>606.1884640922327</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V34" t="n">
-        <v>319.2329559626632</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W34" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X34" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>913.2164539563237</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="C35" t="n">
-        <v>475.073981139747</v>
+        <v>1669.947483315069</v>
       </c>
       <c r="D35" t="n">
-        <v>475.073981139747</v>
+        <v>1234.037698489513</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>800.2629536478084</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895473</v>
+        <v>372.3955240570162</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001352</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2166.944611562267</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1747.802148141578</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1339.516024441231</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1517.87440598441</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="C37" t="n">
-        <v>1517.87440598441</v>
+        <v>377.8257247349136</v>
       </c>
       <c r="D37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F37" t="n">
-        <v>1517.87440598441</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U37" t="n">
-        <v>2081.940945496479</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V37" t="n">
-        <v>2081.940945496479</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="W37" t="n">
-        <v>1809.914541082771</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="X37" t="n">
-        <v>1564.522786416183</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="Y37" t="n">
-        <v>1517.87440598441</v>
+        <v>383.8534203751327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1106.599419841793</v>
+        <v>1571.411056896655</v>
       </c>
       <c r="C38" t="n">
-        <v>668.4569470252163</v>
+        <v>1133.268584080079</v>
       </c>
       <c r="D38" t="n">
-        <v>232.5471621996608</v>
+        <v>1133.268584080079</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895473</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7210,16 +7210,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="X38" t="n">
-        <v>1941.185114027047</v>
+        <v>1997.710627381563</v>
       </c>
       <c r="Y38" t="n">
-        <v>1532.898990326701</v>
+        <v>1997.710627381563</v>
       </c>
     </row>
     <row r="39">
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1650.218466605094</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="C40" t="n">
-        <v>1650.218466605094</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="D40" t="n">
-        <v>1650.218466605094</v>
+        <v>349.3086159189016</v>
       </c>
       <c r="E40" t="n">
-        <v>1650.218466605094</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F40" t="n">
-        <v>1650.218466605094</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G40" t="n">
-        <v>1650.218466605094</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T40" t="n">
-        <v>2215.901038951971</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U40" t="n">
-        <v>1937.514407000714</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V40" t="n">
-        <v>1650.558898871144</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="W40" t="n">
-        <v>1650.218466605094</v>
+        <v>786.5189893044762</v>
       </c>
       <c r="X40" t="n">
-        <v>1650.218466605094</v>
+        <v>541.1272346378887</v>
       </c>
       <c r="Y40" t="n">
-        <v>1650.218466605094</v>
+        <v>541.1272346378887</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E41" t="n">
         <v>475.073981139747</v>
@@ -7408,25 +7408,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>913.2164539563237</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.43058637240995</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C43" t="n">
-        <v>88.43058637240995</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="D43" t="n">
-        <v>88.43058637240995</v>
+        <v>579.3551917180386</v>
       </c>
       <c r="E43" t="n">
-        <v>88.43058637240995</v>
+        <v>409.5971879687758</v>
       </c>
       <c r="F43" t="n">
-        <v>88.43058637240995</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7596,25 +7596,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U43" t="n">
-        <v>647.4124989156879</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V43" t="n">
-        <v>360.4569907861184</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W43" t="n">
-        <v>88.43058637240995</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X43" t="n">
-        <v>88.43058637240995</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.43058637240995</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
     <row r="44">
@@ -7645,16 +7645,16 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
         <v>1131.588690455489</v>
@@ -7678,22 +7678,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V44" t="n">
-        <v>2360.327577447737</v>
+        <v>1785.939375850675</v>
       </c>
       <c r="W44" t="n">
-        <v>2360.327577447737</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="C46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="D46" t="n">
-        <v>47.20655154895473</v>
+        <v>579.3551917180386</v>
       </c>
       <c r="E46" t="n">
-        <v>47.20655154895473</v>
+        <v>409.5971879687758</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
         <v>47.20655154895473</v>
@@ -7815,43 +7815,43 @@
         <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U46" t="n">
-        <v>611.2730910610244</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="V46" t="n">
-        <v>324.3175829314549</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="W46" t="n">
-        <v>292.5983062155423</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="X46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.20655154895473</v>
+        <v>745.2331845165158</v>
       </c>
     </row>
   </sheetData>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>389.1611752298552</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>9.389184971533325</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>256.4799845637012</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>50.61859208861253</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>26.18518144683492</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -23503,16 +23503,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>380.9311639607546</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>178.684445092785</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>69.57632038443305</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>192.1350301071686</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>106.5064054059969</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23743,10 +23743,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>218.746151180136</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>166.9555110916898</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
-        <v>83.8518265886653</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
         <v>275.6027656317444</v>
@@ -23955,10 +23955,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>60.03778590972684</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>120.3970271724587</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>7.120843316645022</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>155.897325889864</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -24195,7 +24195,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>16.82079010366965</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>254.5875093574908</v>
       </c>
     </row>
     <row r="24">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.1019123650578</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>125.3950593726804</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
@@ -24454,13 +24454,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>394.4171526423961</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>22.06214419180571</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>69.57632038443292</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -24669,7 +24669,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>84.13299774600677</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24694,10 +24694,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>188.8567378863111</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>53.4861337707548</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24840,25 +24840,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>121.641647311965</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>48.43959011451736</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>53.48613377075435</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>320.5943355384201</v>
       </c>
     </row>
     <row r="33">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>176.9097803756431</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>163.0937685836068</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>102.1704786355872</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>340.5949175658654</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>249.4194699038133</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>183.9330138479804</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -25326,7 +25326,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
@@ -25374,13 +25374,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.9635773515769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>245.9497928490887</v>
+        <v>44.84867642388809</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -25557,7 +25557,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -25599,22 +25599,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>268.9691124261815</v>
+        <v>167.1968139988443</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>305.396991767981</v>
+        <v>248.3039368052033</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,19 +25791,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>110.2876420403225</v>
       </c>
       <c r="G43" t="n">
-        <v>122.2819741083861</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>397.7988917382565</v>
       </c>
       <c r="X44" t="n">
-        <v>265.3352856806301</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26028,19 +26028,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>110.2876420403225</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>237.9040564208179</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348163</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348164</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>356556.3948348165</v>
+        <v>356556.3948348163</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>356556.3948348163</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>356556.3948348164</v>
+        <v>356556.3948348165</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>132834.7353306179</v>
       </c>
       <c r="F2" t="n">
-        <v>132834.7353306178</v>
+        <v>132834.7353306179</v>
       </c>
       <c r="G2" t="n">
         <v>132834.7353306179</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>-464765.8374141188</v>
+        <v>-465407.0755278942</v>
       </c>
       <c r="F6" t="n">
-        <v>86369.36357655688</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="G6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="H6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278151</v>
       </c>
       <c r="I6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="J6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="K6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="L6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="M6" t="n">
-        <v>-60681.40482601448</v>
+        <v>-61322.64293978989</v>
       </c>
       <c r="N6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278154</v>
       </c>
       <c r="O6" t="n">
-        <v>86369.36357655693</v>
+        <v>85728.12546278157</v>
       </c>
       <c r="P6" t="n">
-        <v>86369.36357655696</v>
+        <v>85728.12546278154</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932211</v>
@@ -26779,7 +26779,7 @@
         <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26798,16 +26798,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619341</v>
@@ -26816,13 +26816,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619341</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31931,28 +31931,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,40 +32232,40 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994722</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,25 +32785,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R26" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33736,13 +33736,13 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -33973,7 +33973,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,13 +35406,13 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
         <v>296.0766412766674</v>
@@ -35424,7 +35424,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184533</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35661,10 +35661,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562328</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35734,16 +35734,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35898,7 +35898,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916795</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35977,10 +35977,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O19" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125707</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36138,10 +36138,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
         <v>254.3525508108055</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
         <v>97.77787936116988</v>
@@ -36293,16 +36293,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -36436,13 +36436,13 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M24" t="n">
         <v>254.3525508108055</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
         <v>131.9236286247772</v>
@@ -36530,16 +36530,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,28 +36591,28 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J26" t="n">
         <v>159.2391669125709</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L27" t="n">
         <v>217.9630089646689</v>
@@ -36688,16 +36688,16 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742736</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36764,7 +36764,7 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
@@ -36776,7 +36776,7 @@
         <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916776</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562353</v>
       </c>
       <c r="K30" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L30" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
         <v>254.3525508108055</v>
@@ -36928,13 +36928,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.326721642336</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L31" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q31" t="n">
         <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766673</v>
@@ -37083,10 +37083,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L33" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M33" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N33" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -37229,7 +37229,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -37320,10 +37320,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37545,7 +37545,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766673</v>
@@ -37557,10 +37557,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37621,7 +37621,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,25 +37779,25 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062839</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816029</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38183,7 +38183,7 @@
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
